--- a/SBA Science Variable Dictionary 2018-2019.xlsx
+++ b/SBA Science Variable Dictionary 2018-2019.xlsx
@@ -353,7 +353,7 @@
     <t>3 levels: Online, Paper, Mixed</t>
   </si>
   <si>
-    <t>Last edited on 7/10/2019</t>
+    <t>Last edited on 7/11/2019</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SBA Science Variable Dictionary 2018-2019.xlsx
+++ b/SBA Science Variable Dictionary 2018-2019.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SBAScience2019" sheetId="1" r:id="rId1"/>
+    <sheet name="SBASciFALL1819" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="111">
   <si>
     <t>Variable</t>
   </si>
@@ -354,6 +355,9 @@
   </si>
   <si>
     <t>Last edited on 7/11/2019</t>
+  </si>
+  <si>
+    <t>Last edited on 8/14/2019</t>
   </si>
 </sst>
 </file>
@@ -903,8 +907,8 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,4 +1595,697 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="65.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="52.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SBA Science Variable Dictionary 2018-2019.xlsx
+++ b/SBA Science Variable Dictionary 2018-2019.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="111">
   <si>
     <t>Variable</t>
   </si>
@@ -1599,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,198 +1673,200 @@
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>30</v>
@@ -1873,417 +1875,394 @@
         <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>105</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>102</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>103</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="F32" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="11" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G33" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SBA Science Variable Dictionary 2018-2019.xlsx
+++ b/SBA Science Variable Dictionary 2018-2019.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11895" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SBAScience2019" sheetId="1" r:id="rId1"/>
+    <sheet name="SBASciSPRING1819" sheetId="1" r:id="rId1"/>
     <sheet name="SBASciFALL1819" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="111">
   <si>
     <t>Variable</t>
   </si>
@@ -908,7 +908,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,406 +1863,326 @@
     </row>
     <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>102</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="19" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>104</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>103</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>32</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <v>33</v>
-      </c>
-      <c r="B33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="11" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G29" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SBA Science Variable Dictionary 2018-2019.xlsx
+++ b/SBA Science Variable Dictionary 2018-2019.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="113">
   <si>
     <t>Variable</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>Last edited on 8/14/2019</t>
+  </si>
+  <si>
+    <t>SBASCI_FALL</t>
+  </si>
+  <si>
+    <t>SCI_FALL</t>
   </si>
 </sst>
 </file>
@@ -1599,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1679,7 @@
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -1692,7 +1698,7 @@
     </row>
     <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -1711,7 +1717,7 @@
     </row>
     <row r="5" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -1730,7 +1736,7 @@
     </row>
     <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -1749,7 +1755,7 @@
     </row>
     <row r="7" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -1768,7 +1774,7 @@
     </row>
     <row r="8" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -1785,7 +1791,7 @@
     </row>
     <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -1802,7 +1808,7 @@
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -1821,7 +1827,7 @@
     </row>
     <row r="11" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>21</v>
@@ -1840,7 +1846,7 @@
     </row>
     <row r="12" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>98</v>
@@ -1863,7 +1869,7 @@
     </row>
     <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1884,7 +1890,7 @@
     </row>
     <row r="14" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1903,7 +1909,7 @@
     </row>
     <row r="15" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>31</v>
@@ -1922,7 +1928,7 @@
     </row>
     <row r="16" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>32</v>
@@ -1941,7 +1947,7 @@
     </row>
     <row r="17" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>39</v>
@@ -1960,7 +1966,7 @@
     </row>
     <row r="18" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>41</v>
@@ -1981,7 +1987,7 @@
     </row>
     <row r="19" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>49</v>
@@ -1994,13 +2000,13 @@
         <v>78</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>51</v>
@@ -2013,13 +2019,13 @@
         <v>79</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>53</v>
@@ -2038,7 +2044,7 @@
     </row>
     <row r="22" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>87</v>
@@ -2057,7 +2063,7 @@
     </row>
     <row r="23" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>107</v>
@@ -2076,7 +2082,7 @@
     </row>
     <row r="24" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>55</v>
@@ -2093,7 +2099,7 @@
     </row>
     <row r="25" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>56</v>
@@ -2112,7 +2118,7 @@
     </row>
     <row r="26" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>59</v>
@@ -2131,7 +2137,7 @@
     </row>
     <row r="27" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>89</v>
@@ -2148,7 +2154,7 @@
     </row>
     <row r="28" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>61</v>
@@ -2164,25 +2170,6 @@
         <v>84</v>
       </c>
       <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <v>33</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
